--- a/docs/example_ph/data/Water_i_Education_2030.xlsx
+++ b/docs/example_ph/data/Water_i_Education_2030.xlsx
@@ -434,40 +434,28 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>526</v>
-      </c>
       <c r="C2">
-        <v>6303.76</v>
+        <v>5764.04</v>
       </c>
       <c r="D2">
-        <v>2893.4</v>
-      </c>
-      <c r="E2">
-        <v>521</v>
+        <v>2933.7</v>
       </c>
       <c r="F2">
-        <v>1172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1392</v>
-      </c>
       <c r="C3">
-        <v>32.81</v>
+        <v>560.96</v>
       </c>
       <c r="D3">
-        <v>697.77</v>
-      </c>
-      <c r="E3">
-        <v>352</v>
+        <v>2584.57</v>
       </c>
       <c r="F3">
-        <v>6586.8</v>
+        <v>9002.940000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +463,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5450.34</v>
-      </c>
-      <c r="C4">
-        <v>0.97</v>
+        <v>1212</v>
       </c>
       <c r="D4">
-        <v>1640.41</v>
-      </c>
-      <c r="E4">
-        <v>1110.79</v>
+        <v>94.72</v>
       </c>
       <c r="F4">
-        <v>1055.87</v>
+        <v>5369.71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +477,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2198.09</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>381.73</v>
+        <v>9647.67</v>
       </c>
       <c r="E5">
-        <v>310.13</v>
+        <v>1807</v>
       </c>
       <c r="F5">
-        <v>4899.4</v>
+        <v>282.68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,13 +491,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5727.95</v>
+        <v>4434.33</v>
       </c>
       <c r="E6">
-        <v>655.09</v>
-      </c>
-      <c r="F6">
-        <v>1011.1</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
